--- a/erp_backend/login.xlsx
+++ b/erp_backend/login.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -22,28 +22,10 @@
     <t>Time</t>
   </si>
   <si>
-    <t>75</t>
+    <t>5</t>
   </si>
   <si>
     <t>03-12-2023</t>
-  </si>
-  <si>
-    <t>20:11</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>20:18</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>20:31</t>
@@ -603,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C48"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -636,51 +618,51 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,51 +673,51 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -746,111 +728,111 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
         <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -861,13 +843,13 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -878,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -889,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -900,62 +882,62 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
         <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -966,40 +948,40 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
         <v>46</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1010,29 +992,29 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
         <v>51</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
         <v>53</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1043,73 +1025,73 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
         <v>55</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
         <v>60</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,62 +1113,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
